--- a/downloads/GPConnectMessaging-Requirements.xlsx
+++ b/downloads/GPConnectMessaging-Requirements.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="16">
   <si>
     <t>Requirement ID</t>
   </si>
@@ -61,6 +61,30 @@
       </rPr>
       <t xml:space="preserve"> with base url of GP Connect message specification </t>
     </r>
+  </si>
+  <si>
+    <t>http://localhost:4006/senddocument_payload.html#payload-message-requirements</t>
+  </si>
+  <si>
+    <t>GPCM-SD-1</t>
+  </si>
+  <si>
+    <t>GPCM-SD-2</t>
+  </si>
+  <si>
+    <t>GPCM-SD-3</t>
+  </si>
+  <si>
+    <t>GPCM-SD-4</t>
+  </si>
+  <si>
+    <t>GPCM-SD-5</t>
+  </si>
+  <si>
+    <t>GPCM-SD-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://localhost:4006/senddocument_payload.html#payload-message-requirements </t>
   </si>
 </sst>
 </file>
@@ -441,7 +465,7 @@
   <dimension ref="B2:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -479,39 +503,51 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
@@ -709,9 +745,15 @@
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" location="using-itk3-to-support-gp-connect-messaging"/>
     <hyperlink ref="C3" r:id="rId2" location="overview"/>
+    <hyperlink ref="C5" r:id="rId3" location="payload-message-requirements"/>
+    <hyperlink ref="C6" r:id="rId4" location="payload-message-requirements "/>
+    <hyperlink ref="C7" r:id="rId5" location="payload-message-requirements"/>
+    <hyperlink ref="C8" r:id="rId6" location="payload-message-requirements"/>
+    <hyperlink ref="C9" r:id="rId7" location="payload-message-requirements"/>
+    <hyperlink ref="C10" r:id="rId8" location="payload-message-requirements"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 

--- a/downloads/GPConnectMessaging-Requirements.xlsx
+++ b/downloads/GPConnectMessaging-Requirements.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
   <si>
     <t>Requirement ID</t>
   </si>
@@ -85,6 +85,30 @@
   </si>
   <si>
     <t xml:space="preserve">http://localhost:4006/senddocument_payload.html#payload-message-requirements </t>
+  </si>
+  <si>
+    <t>GPCM-SD-7</t>
+  </si>
+  <si>
+    <t>http://localhost:4006/senddocument_payload.html#including-documents-in-the-payload</t>
+  </si>
+  <si>
+    <t>GPCM-SD-8</t>
+  </si>
+  <si>
+    <t>GPCM-SD-9</t>
+  </si>
+  <si>
+    <t>GPCM-SD-10</t>
+  </si>
+  <si>
+    <t>GPCM-SD-11</t>
+  </si>
+  <si>
+    <t>GPCM-SD-12</t>
+  </si>
+  <si>
+    <t>GPCM-SD-13</t>
   </si>
 </sst>
 </file>
@@ -465,7 +489,7 @@
   <dimension ref="B2:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -551,45 +575,59 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
@@ -751,9 +789,11 @@
     <hyperlink ref="C8" r:id="rId6" location="payload-message-requirements"/>
     <hyperlink ref="C9" r:id="rId7" location="payload-message-requirements"/>
     <hyperlink ref="C10" r:id="rId8" location="payload-message-requirements"/>
+    <hyperlink ref="C11" r:id="rId9" location="payload-message-requirements"/>
+    <hyperlink ref="C12" r:id="rId10" location="including-documents-in-the-payload"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 

--- a/downloads/GPConnectMessaging-Requirements.xlsx
+++ b/downloads/GPConnectMessaging-Requirements.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="103">
   <si>
     <t>Requirement ID</t>
   </si>
@@ -27,45 +27,9 @@
     <t>GPCM-C-1</t>
   </si>
   <si>
-    <t>GPCM-</t>
-  </si>
-  <si>
-    <t>http://localhost:4006/integration_mesh.html#overview</t>
-  </si>
-  <si>
-    <t>http://localhost:4006/integration_itk3.html#using-itk3-to-support-gp-connect-messaging</t>
-  </si>
-  <si>
     <t>GPCM-C-2</t>
   </si>
   <si>
-    <r>
-      <t>Tip: Replace all instances of</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> localhost:4006</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> with base url of GP Connect message specification </t>
-    </r>
-  </si>
-  <si>
-    <t>http://localhost:4006/senddocument_payload.html#payload-message-requirements</t>
-  </si>
-  <si>
     <t>GPCM-SD-1</t>
   </si>
   <si>
@@ -84,15 +48,9 @@
     <t>GPCM-SD-6</t>
   </si>
   <si>
-    <t xml:space="preserve">http://localhost:4006/senddocument_payload.html#payload-message-requirements </t>
-  </si>
-  <si>
     <t>GPCM-SD-7</t>
   </si>
   <si>
-    <t>http://localhost:4006/senddocument_payload.html#including-documents-in-the-payload</t>
-  </si>
-  <si>
     <t>GPCM-SD-8</t>
   </si>
   <si>
@@ -109,6 +67,264 @@
   </si>
   <si>
     <t>GPCM-SD-13</t>
+  </si>
+  <si>
+    <t>GPCM-SD-14</t>
+  </si>
+  <si>
+    <t>GPCM-SD-15</t>
+  </si>
+  <si>
+    <t>GPCM-SD-16</t>
+  </si>
+  <si>
+    <t>GPCM-SD-17</t>
+  </si>
+  <si>
+    <t>GPCM-SD-18</t>
+  </si>
+  <si>
+    <t>GPCM-SD-19</t>
+  </si>
+  <si>
+    <t>GPCM-SD-20</t>
+  </si>
+  <si>
+    <t>GPCM-SD-21</t>
+  </si>
+  <si>
+    <t>GPCM-SD-22</t>
+  </si>
+  <si>
+    <t>GPCM-SD-23</t>
+  </si>
+  <si>
+    <t>GPCM-SD-24</t>
+  </si>
+  <si>
+    <t>GPCM-SD-25</t>
+  </si>
+  <si>
+    <t>GPCM-SD-26</t>
+  </si>
+  <si>
+    <t>GPCM-SD-27</t>
+  </si>
+  <si>
+    <t>GPCM-SD-28</t>
+  </si>
+  <si>
+    <t>GPCM-SD-29</t>
+  </si>
+  <si>
+    <t>GPCM-SD-30</t>
+  </si>
+  <si>
+    <t>GPCM-SD-31</t>
+  </si>
+  <si>
+    <t>GPCM-SD-32</t>
+  </si>
+  <si>
+    <t>GPCM-SD-33</t>
+  </si>
+  <si>
+    <t>GPCM-SD-34</t>
+  </si>
+  <si>
+    <t>GPCM-SD-35</t>
+  </si>
+  <si>
+    <t>GPCM-SD-36</t>
+  </si>
+  <si>
+    <t>GPCM-SD-37</t>
+  </si>
+  <si>
+    <t>GPCM-SD-38</t>
+  </si>
+  <si>
+    <t>GPCM-SD-39</t>
+  </si>
+  <si>
+    <t>GPCM-SD-40</t>
+  </si>
+  <si>
+    <t>GPCM-SD-41</t>
+  </si>
+  <si>
+    <t>GPCM-SD-42</t>
+  </si>
+  <si>
+    <t>GPCM-SD-43</t>
+  </si>
+  <si>
+    <t>GPCM-SD-44</t>
+  </si>
+  <si>
+    <t>GPCM-SD-45</t>
+  </si>
+  <si>
+    <t>GPCM-SD-46</t>
+  </si>
+  <si>
+    <t>GPCM-SD-47</t>
+  </si>
+  <si>
+    <t>GPCM-SD-48</t>
+  </si>
+  <si>
+    <t>GPCM-SD-49</t>
+  </si>
+  <si>
+    <t>GPCM-SD-50</t>
+  </si>
+  <si>
+    <t>GPCM-SD-51</t>
+  </si>
+  <si>
+    <t>GPCM-SD-52</t>
+  </si>
+  <si>
+    <t>GPCM-SD-53</t>
+  </si>
+  <si>
+    <t>GPCM-SD-54</t>
+  </si>
+  <si>
+    <t>GPCM-SD-55</t>
+  </si>
+  <si>
+    <t>GPCM-SD-56</t>
+  </si>
+  <si>
+    <t>GPCM-SD-57</t>
+  </si>
+  <si>
+    <t>GPCM-SD-58</t>
+  </si>
+  <si>
+    <t>GPCM-SD-59</t>
+  </si>
+  <si>
+    <t>GPCM-SD-60</t>
+  </si>
+  <si>
+    <t>GPCM-SD-61</t>
+  </si>
+  <si>
+    <t>GPCM-SD-62</t>
+  </si>
+  <si>
+    <t>GPCM-SD-63</t>
+  </si>
+  <si>
+    <t>GPCM-SD-64</t>
+  </si>
+  <si>
+    <t>GPCM-SD-65</t>
+  </si>
+  <si>
+    <t>GPCM-SD-66</t>
+  </si>
+  <si>
+    <t>GPCM-SD-67</t>
+  </si>
+  <si>
+    <t>GPCM-SD-68</t>
+  </si>
+  <si>
+    <t>GPCM-SD-69</t>
+  </si>
+  <si>
+    <t>GPCM-SD-70</t>
+  </si>
+  <si>
+    <t>GPCM-SD-71</t>
+  </si>
+  <si>
+    <t>GPCM-SD-72</t>
+  </si>
+  <si>
+    <t>GPCM-SD-73</t>
+  </si>
+  <si>
+    <t>GPCM-SD-74</t>
+  </si>
+  <si>
+    <t>GPCM-SD-75</t>
+  </si>
+  <si>
+    <t>GPCM-SD-76</t>
+  </si>
+  <si>
+    <t>GPCM-SD-77</t>
+  </si>
+  <si>
+    <t>https://developer.nhs.uk/apis/gpconnect-messaging-1-0/integration_mesh.html#overview</t>
+  </si>
+  <si>
+    <t>https://developer.nhs.uk/apis/gpconnect-messaging-1-0/integration_itk3.html#using-itk3-to-support-gp-connect-messaging</t>
+  </si>
+  <si>
+    <t>https://developer.nhs.uk/apis/gpconnect-messaging-1-0/senddocument_payload.html#payload-message-requirements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developer.nhs.uk/apis/gpconnect-messaging-1-0/senddocument_payload.html#payload-message-requirements </t>
+  </si>
+  <si>
+    <t>https://developer.nhs.uk/apis/gpconnect-messaging-1-0/senddocument_payload.html#including-documents-in-the-payload</t>
+  </si>
+  <si>
+    <t>https://developer.nhs.uk/apis/gpconnect-messaging-1-0/senddocument_fedcon_payload.html#task-resource</t>
+  </si>
+  <si>
+    <t>https://developer.nhs.uk/apis/gpconnect-messaging-1-0/senddocument_fedcon_payload.html#including-binary-documents-in-the-payload</t>
+  </si>
+  <si>
+    <t>https://developer.nhs.uk/apis/gpconnect-messaging-1-0/senddocument_fedcon_payload.html#organization-resources</t>
+  </si>
+  <si>
+    <t>https://developer.nhs.uk/apis/gpconnect-messaging-1-0/senddocument_fedcon_payload.html#practitioner-resource</t>
+  </si>
+  <si>
+    <t>https://developer.nhs.uk/apis/gpconnect-messaging-1-0/senddocument_fedcon_payload.html#patient-resource</t>
+  </si>
+  <si>
+    <t>https://developer.nhs.uk/apis/gpconnect-messaging-1-0/senddocument_fedcon_itk3.html</t>
+  </si>
+  <si>
+    <t>https://developer.nhs.uk/apis/gpconnect-messaging-1-0/senddocument_fedcon_itk3.html#itk3-responses-generated</t>
+  </si>
+  <si>
+    <t>https://developer.nhs.uk/apis/gpconnect-messaging-1-0/senddocument_fedcon_mesh.html#mesh-message-routing</t>
+  </si>
+  <si>
+    <t>https://developer.nhs.uk/apis/gpconnect-messaging-1-0/senddocument_fedcon_mesh.html#workflow-groups-and-workflow-id</t>
+  </si>
+  <si>
+    <t>https://developer.nhs.uk/apis/gpconnect-messaging-1-0/senddocument_fedcon_mesh.html#mesh-client-configuration</t>
+  </si>
+  <si>
+    <t>https://developer.nhs.uk/apis/gpconnect-messaging-1-0/senddocument_fedcon_mesh.html#mesh-api-configuration</t>
+  </si>
+  <si>
+    <t>https://developer.nhs.uk/apis/gpconnect-messaging-1-0/senddocument_fedcon_errors.html#itk3-errors</t>
+  </si>
+  <si>
+    <t>https://developer.nhs.uk/apis/gpconnect-messaging-1-0/senddocument_fedcon_errors.html#itk3-header-errors</t>
+  </si>
+  <si>
+    <t>https://developer.nhs.uk/apis/gpconnect-messaging-1-0/senddocument_fedcon_errors.html#itk3-payload-business-rules-errors</t>
+  </si>
+  <si>
+    <t>https://developer.nhs.uk/apis/gpconnect-messaging-1-0/senddocument_fedcon_errors.html#diagnostic-information</t>
+  </si>
+  <si>
+    <t>https://developer.nhs.uk/apis/gpconnect-messaging-1-0/senddocument_fedcon_errors.html#errors-from-mesh-endpoint-lookup</t>
+  </si>
+  <si>
+    <t>https://developer.nhs.uk/apis/gpconnect-messaging-1-0/senddocument_fedcon_trigger.html#guiding-principles</t>
   </si>
 </sst>
 </file>
@@ -182,8 +398,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -486,314 +702,742 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E45"/>
+  <dimension ref="B2:C81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.875" customWidth="1"/>
-    <col min="3" max="3" width="102.375" customWidth="1"/>
+    <col min="3" max="3" width="112.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
+      <c r="C5" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
+      <c r="C7" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
+      <c r="C10" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C11" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>17</v>
+      <c r="C16" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
+      <c r="B41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+      <c r="B44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
+      <c r="B45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B73" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B74" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B75" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B76" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B77" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B79" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B81" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" location="using-itk3-to-support-gp-connect-messaging"/>
-    <hyperlink ref="C3" r:id="rId2" location="overview"/>
-    <hyperlink ref="C5" r:id="rId3" location="payload-message-requirements"/>
-    <hyperlink ref="C6" r:id="rId4" location="payload-message-requirements "/>
-    <hyperlink ref="C7" r:id="rId5" location="payload-message-requirements"/>
-    <hyperlink ref="C8" r:id="rId6" location="payload-message-requirements"/>
-    <hyperlink ref="C9" r:id="rId7" location="payload-message-requirements"/>
-    <hyperlink ref="C10" r:id="rId8" location="payload-message-requirements"/>
-    <hyperlink ref="C11" r:id="rId9" location="payload-message-requirements"/>
-    <hyperlink ref="C12" r:id="rId10" location="including-documents-in-the-payload"/>
+    <hyperlink ref="C4" r:id="rId1" location="using-itk3-to-support-gp-connect-messaging" display="http://localhost:4006/integration_itk3.html#using-itk3-to-support-gp-connect-messaging"/>
+    <hyperlink ref="C3" r:id="rId2" location="overview" display="http://localhost:4006/integration_mesh.html#overview"/>
+    <hyperlink ref="C5" r:id="rId3" location="payload-message-requirements" display="http://localhost:4006/senddocument_payload.html#payload-message-requirements"/>
+    <hyperlink ref="C6" r:id="rId4" location="payload-message-requirements " display="http://localhost:4006/senddocument_payload.html#payload-message-requirements "/>
+    <hyperlink ref="C7" r:id="rId5" location="payload-message-requirements" display="http://localhost:4006/senddocument_payload.html#payload-message-requirements"/>
+    <hyperlink ref="C8" r:id="rId6" location="payload-message-requirements" display="http://localhost:4006/senddocument_payload.html#payload-message-requirements"/>
+    <hyperlink ref="C9" r:id="rId7" location="payload-message-requirements" display="http://localhost:4006/senddocument_payload.html#payload-message-requirements"/>
+    <hyperlink ref="C10" r:id="rId8" location="payload-message-requirements" display="http://localhost:4006/senddocument_payload.html#payload-message-requirements"/>
+    <hyperlink ref="C11" r:id="rId9" location="payload-message-requirements" display="http://localhost:4006/senddocument_payload.html#payload-message-requirements"/>
+    <hyperlink ref="C12" r:id="rId10" location="including-documents-in-the-payload" display="http://localhost:4006/senddocument_payload.html#including-documents-in-the-payload"/>
+    <hyperlink ref="C13" r:id="rId11" location="including-documents-in-the-payload" display="http://localhost:4006/senddocument_payload.html#including-documents-in-the-payload"/>
+    <hyperlink ref="C14" r:id="rId12" location="including-documents-in-the-payload" display="http://localhost:4006/senddocument_payload.html#including-documents-in-the-payload"/>
+    <hyperlink ref="C15" r:id="rId13" location="including-documents-in-the-payload" display="http://localhost:4006/senddocument_payload.html#including-documents-in-the-payload"/>
+    <hyperlink ref="C16" r:id="rId14" location="including-documents-in-the-payload" display="http://localhost:4006/senddocument_payload.html#including-documents-in-the-payload"/>
+    <hyperlink ref="C17" r:id="rId15" location="including-documents-in-the-payload" display="http://localhost:4006/senddocument_payload.html#including-documents-in-the-payload"/>
+    <hyperlink ref="C18" r:id="rId16" location="task-resource" display="http://localhost:4006/senddocument_fedcon_payload.html#task-resource"/>
+    <hyperlink ref="C19" r:id="rId17" location="task-resource" display="http://localhost:4006/senddocument_fedcon_payload.html#task-resource"/>
+    <hyperlink ref="C20" r:id="rId18" location="task-resource" display="http://localhost:4006/senddocument_fedcon_payload.html#task-resource"/>
+    <hyperlink ref="C21" r:id="rId19" location="task-resource" display="http://localhost:4006/senddocument_fedcon_payload.html#task-resource"/>
+    <hyperlink ref="C22" r:id="rId20" location="task-resource" display="http://localhost:4006/senddocument_fedcon_payload.html#task-resource"/>
+    <hyperlink ref="C23" r:id="rId21" location="task-resource" display="http://localhost:4006/senddocument_fedcon_payload.html#task-resource"/>
+    <hyperlink ref="C24" r:id="rId22" location="task-resource" display="http://localhost:4006/senddocument_fedcon_payload.html#task-resource"/>
+    <hyperlink ref="C25" r:id="rId23" location="task-resource" display="http://localhost:4006/senddocument_fedcon_payload.html#task-resource"/>
+    <hyperlink ref="C26" r:id="rId24" location="task-resource" display="http://localhost:4006/senddocument_fedcon_payload.html#task-resource"/>
+    <hyperlink ref="C27" r:id="rId25" location="task-resource" display="http://localhost:4006/senddocument_fedcon_payload.html#task-resource"/>
+    <hyperlink ref="C28" r:id="rId26" location="including-binary-documents-in-the-payload" display="http://localhost:4006/senddocument_fedcon_payload.html#including-binary-documents-in-the-payload"/>
+    <hyperlink ref="C29" r:id="rId27" location="including-binary-documents-in-the-payload" display="http://localhost:4006/senddocument_fedcon_payload.html#including-binary-documents-in-the-payload"/>
+    <hyperlink ref="C30" r:id="rId28" location="including-binary-documents-in-the-payload" display="http://localhost:4006/senddocument_fedcon_payload.html#including-binary-documents-in-the-payload"/>
+    <hyperlink ref="C31" r:id="rId29" location="including-binary-documents-in-the-payload" display="http://localhost:4006/senddocument_fedcon_payload.html#including-binary-documents-in-the-payload"/>
+    <hyperlink ref="C32" r:id="rId30" location="organization-resources" display="http://localhost:4006/senddocument_fedcon_payload.html#organization-resources"/>
+    <hyperlink ref="C33" r:id="rId31" location="organization-resources" display="http://localhost:4006/senddocument_fedcon_payload.html#organization-resources"/>
+    <hyperlink ref="C34" r:id="rId32" location="organization-resources" display="http://localhost:4006/senddocument_fedcon_payload.html#organization-resources"/>
+    <hyperlink ref="C35" r:id="rId33" location="organization-resources" display="http://localhost:4006/senddocument_fedcon_payload.html#organization-resources"/>
+    <hyperlink ref="C36" r:id="rId34" location="practitioner-resource" display="http://localhost:4006/senddocument_fedcon_payload.html#practitioner-resource"/>
+    <hyperlink ref="C37" r:id="rId35" location="practitioner-resource" display="http://localhost:4006/senddocument_fedcon_payload.html#practitioner-resource"/>
+    <hyperlink ref="C38" r:id="rId36" location="practitioner-resource" display="http://localhost:4006/senddocument_fedcon_payload.html#practitioner-resource"/>
+    <hyperlink ref="C39" r:id="rId37" location="patient-resource" display="http://localhost:4006/senddocument_fedcon_payload.html#patient-resource"/>
+    <hyperlink ref="C40" r:id="rId38" location="patient-resource" display="http://localhost:4006/senddocument_fedcon_payload.html#patient-resource"/>
+    <hyperlink ref="C41" r:id="rId39" location="patient-resource" display="http://localhost:4006/senddocument_fedcon_payload.html#patient-resource"/>
+    <hyperlink ref="C42" r:id="rId40" location="patient-resource" display="http://localhost:4006/senddocument_fedcon_payload.html#patient-resource"/>
+    <hyperlink ref="C43" r:id="rId41" display="http://localhost:4006/senddocument_fedcon_itk3.html"/>
+    <hyperlink ref="C44" r:id="rId42" display="http://localhost:4006/senddocument_fedcon_itk3.html"/>
+    <hyperlink ref="C45" r:id="rId43" display="http://localhost:4006/senddocument_fedcon_itk3.html"/>
+    <hyperlink ref="C46" r:id="rId44" display="http://localhost:4006/senddocument_fedcon_itk3.html"/>
+    <hyperlink ref="C47" r:id="rId45" display="http://localhost:4006/senddocument_fedcon_itk3.html"/>
+    <hyperlink ref="C48" r:id="rId46" display="http://localhost:4006/senddocument_fedcon_itk3.html"/>
+    <hyperlink ref="C49" r:id="rId47" display="http://localhost:4006/senddocument_fedcon_itk3.html"/>
+    <hyperlink ref="C50" r:id="rId48" display="http://localhost:4006/senddocument_fedcon_itk3.html"/>
+    <hyperlink ref="C51" r:id="rId49" display="http://localhost:4006/senddocument_fedcon_itk3.html"/>
+    <hyperlink ref="C52" r:id="rId50" display="http://localhost:4006/senddocument_fedcon_itk3.html"/>
+    <hyperlink ref="C53" r:id="rId51" display="http://localhost:4006/senddocument_fedcon_itk3.html"/>
+    <hyperlink ref="C54" r:id="rId52" location="itk3-responses-generated" display="http://localhost:4006/senddocument_fedcon_itk3.html#itk3-responses-generated"/>
+    <hyperlink ref="C55" r:id="rId53" location="itk3-responses-generated" display="http://localhost:4006/senddocument_fedcon_itk3.html#itk3-responses-generated"/>
+    <hyperlink ref="C56" r:id="rId54" location="itk3-responses-generated" display="http://localhost:4006/senddocument_fedcon_itk3.html#itk3-responses-generated"/>
+    <hyperlink ref="C57" r:id="rId55" location="itk3-responses-generated" display="http://localhost:4006/senddocument_fedcon_itk3.html#itk3-responses-generated"/>
+    <hyperlink ref="C58" r:id="rId56" location="itk3-responses-generated" display="http://localhost:4006/senddocument_fedcon_itk3.html#itk3-responses-generated"/>
+    <hyperlink ref="C59" r:id="rId57" location="itk3-responses-generated" display="http://localhost:4006/senddocument_fedcon_itk3.html#itk3-responses-generated"/>
+    <hyperlink ref="C60" r:id="rId58" location="mesh-message-routing" display="http://localhost:4006/senddocument_fedcon_mesh.html#mesh-message-routing"/>
+    <hyperlink ref="C61" r:id="rId59" location="workflow-groups-and-workflow-id" display="http://localhost:4006/senddocument_fedcon_mesh.html#workflow-groups-and-workflow-id"/>
+    <hyperlink ref="C62" r:id="rId60" location="workflow-groups-and-workflow-id" display="http://localhost:4006/senddocument_fedcon_mesh.html#workflow-groups-and-workflow-id"/>
+    <hyperlink ref="C63" r:id="rId61" location="mesh-client-configuration" display="http://localhost:4006/senddocument_fedcon_mesh.html#mesh-client-configuration"/>
+    <hyperlink ref="C64" r:id="rId62" location="mesh-client-configuration" display="http://localhost:4006/senddocument_fedcon_mesh.html#mesh-client-configuration"/>
+    <hyperlink ref="C65" r:id="rId63" location="mesh-client-configuration" display="http://localhost:4006/senddocument_fedcon_mesh.html#mesh-client-configuration"/>
+    <hyperlink ref="C66" r:id="rId64" location="mesh-api-configuration" display="http://localhost:4006/senddocument_fedcon_mesh.html#mesh-api-configuration"/>
+    <hyperlink ref="C67" r:id="rId65" location="mesh-api-configuration" display="http://localhost:4006/senddocument_fedcon_mesh.html#mesh-api-configuration"/>
+    <hyperlink ref="C68" r:id="rId66" location="mesh-api-configuration" display="http://localhost:4006/senddocument_fedcon_mesh.html#mesh-api-configuration"/>
+    <hyperlink ref="C69" r:id="rId67" location="itk3-errors" display="http://localhost:4006/senddocument_fedcon_errors.html#itk3-errors"/>
+    <hyperlink ref="C70" r:id="rId68" location="itk3-errors" display="http://localhost:4006/senddocument_fedcon_errors.html#itk3-errors"/>
+    <hyperlink ref="C71" r:id="rId69" location="itk3-header-errors" display="http://localhost:4006/senddocument_fedcon_errors.html#itk3-header-errors"/>
+    <hyperlink ref="C72" r:id="rId70" location="itk3-header-errors" display="http://localhost:4006/senddocument_fedcon_errors.html#itk3-header-errors"/>
+    <hyperlink ref="C73" r:id="rId71" location="itk3-header-errors" display="http://localhost:4006/senddocument_fedcon_errors.html#itk3-header-errors"/>
+    <hyperlink ref="C74" r:id="rId72" location="itk3-header-errors" display="http://localhost:4006/senddocument_fedcon_errors.html#itk3-header-errors"/>
+    <hyperlink ref="C75" r:id="rId73" location="itk3-header-errors" display="http://localhost:4006/senddocument_fedcon_errors.html#itk3-header-errors"/>
+    <hyperlink ref="C76" r:id="rId74" location="itk3-header-errors" display="http://localhost:4006/senddocument_fedcon_errors.html#itk3-header-errors"/>
+    <hyperlink ref="C77" r:id="rId75" location="itk3-payload-business-rules-errors" display="http://localhost:4006/senddocument_fedcon_errors.html#itk3-payload-business-rules-errors"/>
+    <hyperlink ref="C78" r:id="rId76" location="diagnostic-information" display="http://localhost:4006/senddocument_fedcon_errors.html#diagnostic-information"/>
+    <hyperlink ref="C79" r:id="rId77" location="errors-from-mesh-endpoint-lookup" display="http://localhost:4006/senddocument_fedcon_errors.html#errors-from-mesh-endpoint-lookup"/>
+    <hyperlink ref="C80" r:id="rId78" location="guiding-principles" display="http://localhost:4006/senddocument_fedcon_trigger.html#guiding-principles"/>
+    <hyperlink ref="C81" r:id="rId79" location="guiding-principles" display="http://localhost:4006/senddocument_fedcon_trigger.html#guiding-principles"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId80"/>
 </worksheet>
 </file>
 

--- a/downloads/GPConnectMessaging-Requirements.xlsx
+++ b/downloads/GPConnectMessaging-Requirements.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="108">
   <si>
     <t xml:space="preserve">Requirement ID</t>
   </si>
@@ -343,6 +343,9 @@
   </si>
   <si>
     <t xml:space="preserve">GPCM-SD-81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPCM-SD-82</t>
   </si>
 </sst>
 </file>
@@ -456,7 +459,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -470,6 +473,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -555,10 +562,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:C85"/>
+  <dimension ref="B2:C86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C87" activeCellId="0" sqref="C87"/>
+      <selection pane="topLeft" activeCell="C88" activeCellId="0" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1238,6 +1245,14 @@
         <v>106</v>
       </c>
       <c r="C85" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C86" s="5" t="s">
         <v>34</v>
       </c>
     </row>
